--- a/ope.ed.gov/2004/hate-crimes-public-property-virginia-colleges-and-universities-crime-2004.xlsx
+++ b/ope.ed.gov/2004/hate-crimes-public-property-virginia-colleges-and-universities-crime-2004.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Hate_Crimes_Public_Property" state="visible" r:id="rId3"/>
+    <sheet sheetId="1" name="hate-crimes-public-property-vir" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Hate Crimes - Public Property</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,88 +31,88 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Murder/Non-negligent manslaughter - Race</t>
-  </si>
-  <si>
-    <t>Murder/Non-negligent manslaughter - Religion</t>
-  </si>
-  <si>
-    <t>Murder/Non-negligent manslaughter - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Murder/Non-negligent manslaughter - Gender</t>
-  </si>
-  <si>
-    <t>Murder/Non-negligent manslaughter - Disability</t>
-  </si>
-  <si>
-    <t>Murder/Non-negligent manslaughter - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter - Race</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter - Religion</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter - Gender</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter - Disability</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible - Race</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible - Religion</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible - Gender</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible - Disability</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible -Race</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible - Religion</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible - Gender</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible - Disability</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible - Ethnicity/National origin</t>
+    <t>Murder/Non-Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Murder/Non-Negligent Manslaughter - Race</t>
+  </si>
+  <si>
+    <t>Murder/Non-Negligent Manslaughter - Religion</t>
+  </si>
+  <si>
+    <t>Murder/Non-Negligent Manslaughter - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Murder/Non-Negligent Manslaughter - Gender</t>
+  </si>
+  <si>
+    <t>Murder/Non-Negligent Manslaughter - Disability</t>
+  </si>
+  <si>
+    <t>Murder/Non-Negligent Manslaughter - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter - Race</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter - Religion</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter - Gender</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter - Disability</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible - Race</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible - Religion</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible - Gender</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible - Disability</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible -Race</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible - Religion</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible - Gender</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible - Disability</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>Robbery</t>
@@ -127,7 +124,7 @@
     <t>Robbery - Religion</t>
   </si>
   <si>
-    <t>Robbery - Sexual orientation</t>
+    <t>Robbery - Sexual Orientation</t>
   </si>
   <si>
     <t>Robbery - Gender</t>
@@ -136,28 +133,28 @@
     <t>Robbery - Disability</t>
   </si>
   <si>
-    <t>Robbery - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Aggravated assault</t>
-  </si>
-  <si>
-    <t>Aggravated assault - Race</t>
-  </si>
-  <si>
-    <t>Aggravated assault - Religion</t>
-  </si>
-  <si>
-    <t>Aggravated assault - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Aggravated assault - Gender</t>
-  </si>
-  <si>
-    <t>Aggravated assault - Disability</t>
-  </si>
-  <si>
-    <t>Aggravated assault - Ethnicity/National origin</t>
+    <t>Robbery - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Aggravated Assault</t>
+  </si>
+  <si>
+    <t>Aggravated Assault - Race</t>
+  </si>
+  <si>
+    <t>Aggravated Assault - Religion</t>
+  </si>
+  <si>
+    <t>Aggravated Assault - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Aggravated Assault - Gender</t>
+  </si>
+  <si>
+    <t>Aggravated Assault - Disability</t>
+  </si>
+  <si>
+    <t>Aggravated Assault - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>Burglary</t>
@@ -169,7 +166,7 @@
     <t>Burglary - Religion</t>
   </si>
   <si>
-    <t>Burglary - Sexual orientation</t>
+    <t>Burglary - Sexual Orientation</t>
   </si>
   <si>
     <t>Burglary - Gender</t>
@@ -178,28 +175,28 @@
     <t>Burglary - Disability</t>
   </si>
   <si>
-    <t>Burglary - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft - Race</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft - Religion</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft - Gender</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft - Disability</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft - Ethnicity/National origin</t>
+    <t>Burglary - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft - Race</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft - Religion</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft - Gender</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft - Disability</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>Arson</t>
@@ -211,7 +208,7 @@
     <t>Arson - Religion</t>
   </si>
   <si>
-    <t>Arson - Sexual orientation</t>
+    <t>Arson - Sexual Orientation</t>
   </si>
   <si>
     <t>Arson - Gender</t>
@@ -220,49 +217,49 @@
     <t>Arson - Disability</t>
   </si>
   <si>
-    <t>Arson - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Simple assault</t>
-  </si>
-  <si>
-    <t>Simple assault - Race</t>
-  </si>
-  <si>
-    <t>Simple assault - Religion</t>
-  </si>
-  <si>
-    <t>Simple assault - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Simple assault - Gender</t>
-  </si>
-  <si>
-    <t>Simple assault - Disability</t>
-  </si>
-  <si>
-    <t>Simple assault - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Larceny-theft</t>
-  </si>
-  <si>
-    <t>Larceny-theft - Race</t>
-  </si>
-  <si>
-    <t>Larceny-theft - Religion</t>
-  </si>
-  <si>
-    <t>Larceny-theft - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Larceny-theft - Gender</t>
-  </si>
-  <si>
-    <t>Larceny-theft - Disability</t>
-  </si>
-  <si>
-    <t>Larceny-theft - Ethnicity/National origin</t>
+    <t>Arson - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Simple Assault</t>
+  </si>
+  <si>
+    <t>Simple Assault - Race</t>
+  </si>
+  <si>
+    <t>Simple Assault - Religion</t>
+  </si>
+  <si>
+    <t>Simple Assault - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Simple Assault - Gender</t>
+  </si>
+  <si>
+    <t>Simple Assault - Disability</t>
+  </si>
+  <si>
+    <t>Simple Assault - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Larceny-Theft</t>
+  </si>
+  <si>
+    <t>Larceny-Theft - Race</t>
+  </si>
+  <si>
+    <t>Larceny-Theft - Religion</t>
+  </si>
+  <si>
+    <t>Larceny-Theft - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Larceny-Theft - Gender</t>
+  </si>
+  <si>
+    <t>Larceny-Theft - Disability</t>
+  </si>
+  <si>
+    <t>Larceny-Theft - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>Intimidation</t>
@@ -274,7 +271,7 @@
     <t>Intimidation - Religion</t>
   </si>
   <si>
-    <t>Intimidation - Sexual orientation</t>
+    <t>Intimidation - Sexual Orientation</t>
   </si>
   <si>
     <t>Intimidation - Gender</t>
@@ -283,28 +280,28 @@
     <t>Intimidation - Disability</t>
   </si>
   <si>
-    <t>Intimidation - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property - Race</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property - Religion</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property - Gender</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property - Disability</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property - Ethnicity/National origin</t>
+    <t>Intimidation - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property - Race</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property - Religion</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property - Gender</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property - Disability</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>ACT College</t>
@@ -1711,298 +1708,343 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>9</v>
+      </c>
+      <c t="s" s="1" r="K1">
+        <v>10</v>
+      </c>
+      <c t="s" s="1" r="L1">
+        <v>11</v>
+      </c>
+      <c t="s" s="1" r="M1">
+        <v>12</v>
+      </c>
+      <c t="s" s="1" r="N1">
+        <v>13</v>
+      </c>
+      <c t="s" s="1" r="O1">
+        <v>14</v>
+      </c>
+      <c t="s" s="1" r="P1">
+        <v>15</v>
+      </c>
+      <c t="s" s="1" r="Q1">
+        <v>16</v>
+      </c>
+      <c t="s" s="1" r="R1">
+        <v>17</v>
+      </c>
+      <c t="s" s="1" r="S1">
+        <v>18</v>
+      </c>
+      <c t="s" s="1" r="T1">
+        <v>19</v>
+      </c>
+      <c t="s" s="1" r="U1">
+        <v>20</v>
+      </c>
+      <c t="s" s="1" r="V1">
+        <v>21</v>
+      </c>
+      <c t="s" s="1" r="W1">
+        <v>22</v>
+      </c>
+      <c t="s" s="1" r="X1">
+        <v>23</v>
+      </c>
+      <c t="s" s="1" r="Y1">
+        <v>24</v>
+      </c>
+      <c t="s" s="1" r="Z1">
+        <v>25</v>
+      </c>
+      <c t="s" s="1" r="AA1">
+        <v>26</v>
+      </c>
+      <c t="s" s="1" r="AB1">
+        <v>27</v>
+      </c>
+      <c t="s" s="1" r="AC1">
+        <v>28</v>
+      </c>
+      <c t="s" s="1" r="AD1">
+        <v>29</v>
+      </c>
+      <c t="s" s="1" r="AE1">
+        <v>30</v>
+      </c>
+      <c t="s" s="1" r="AF1">
+        <v>31</v>
+      </c>
+      <c t="s" s="1" r="AG1">
+        <v>32</v>
+      </c>
+      <c t="s" s="1" r="AH1">
+        <v>33</v>
+      </c>
+      <c t="s" s="1" r="AI1">
+        <v>34</v>
+      </c>
+      <c t="s" s="1" r="AJ1">
+        <v>35</v>
+      </c>
+      <c t="s" s="1" r="AK1">
+        <v>36</v>
+      </c>
+      <c t="s" s="1" r="AL1">
+        <v>37</v>
+      </c>
+      <c t="s" s="1" r="AM1">
+        <v>38</v>
+      </c>
+      <c t="s" s="1" r="AN1">
+        <v>39</v>
+      </c>
+      <c t="s" s="1" r="AO1">
+        <v>40</v>
+      </c>
+      <c t="s" s="1" r="AP1">
+        <v>41</v>
+      </c>
+      <c t="s" s="1" r="AQ1">
+        <v>42</v>
+      </c>
+      <c t="s" s="1" r="AR1">
+        <v>43</v>
+      </c>
+      <c t="s" s="1" r="AS1">
+        <v>44</v>
+      </c>
+      <c t="s" s="1" r="AT1">
+        <v>45</v>
+      </c>
+      <c t="s" s="1" r="AU1">
+        <v>46</v>
+      </c>
+      <c t="s" s="1" r="AV1">
+        <v>47</v>
+      </c>
+      <c t="s" s="1" r="AW1">
+        <v>48</v>
+      </c>
+      <c t="s" s="1" r="AX1">
+        <v>49</v>
+      </c>
+      <c t="s" s="1" r="AY1">
+        <v>50</v>
+      </c>
+      <c t="s" s="1" r="AZ1">
+        <v>51</v>
+      </c>
+      <c t="s" s="1" r="BA1">
+        <v>52</v>
+      </c>
+      <c t="s" s="1" r="BB1">
+        <v>53</v>
+      </c>
+      <c t="s" s="1" r="BC1">
+        <v>54</v>
+      </c>
+      <c t="s" s="1" r="BD1">
+        <v>55</v>
+      </c>
+      <c t="s" s="1" r="BE1">
+        <v>56</v>
+      </c>
+      <c t="s" s="1" r="BF1">
+        <v>57</v>
+      </c>
+      <c t="s" s="1" r="BG1">
+        <v>58</v>
+      </c>
+      <c t="s" s="1" r="BH1">
+        <v>59</v>
+      </c>
+      <c t="s" s="1" r="BI1">
+        <v>60</v>
+      </c>
+      <c t="s" s="1" r="BJ1">
+        <v>61</v>
+      </c>
+      <c t="s" s="1" r="BK1">
+        <v>62</v>
+      </c>
+      <c t="s" s="1" r="BL1">
+        <v>63</v>
+      </c>
+      <c t="s" s="1" r="BM1">
+        <v>64</v>
+      </c>
+      <c t="s" s="1" r="BN1">
+        <v>65</v>
+      </c>
+      <c t="s" s="1" r="BO1">
+        <v>66</v>
+      </c>
+      <c t="s" s="1" r="BP1">
+        <v>67</v>
+      </c>
+      <c t="s" s="1" r="BQ1">
+        <v>68</v>
+      </c>
+      <c t="s" s="1" r="BR1">
+        <v>69</v>
+      </c>
+      <c t="s" s="1" r="BS1">
+        <v>70</v>
+      </c>
+      <c t="s" s="1" r="BT1">
+        <v>71</v>
+      </c>
+      <c t="s" s="1" r="BU1">
+        <v>72</v>
+      </c>
+      <c t="s" s="1" r="BV1">
+        <v>73</v>
+      </c>
+      <c t="s" s="1" r="BW1">
+        <v>74</v>
+      </c>
+      <c t="s" s="1" r="BX1">
+        <v>75</v>
+      </c>
+      <c t="s" s="1" r="BY1">
+        <v>76</v>
+      </c>
+      <c t="s" s="1" r="BZ1">
+        <v>77</v>
+      </c>
+      <c t="s" s="1" r="CA1">
+        <v>78</v>
+      </c>
+      <c t="s" s="1" r="CB1">
+        <v>79</v>
+      </c>
+      <c t="s" s="1" r="CC1">
+        <v>80</v>
+      </c>
+      <c t="s" s="1" r="CD1">
+        <v>81</v>
+      </c>
+      <c t="s" s="1" r="CE1">
+        <v>82</v>
+      </c>
+      <c t="s" s="1" r="CF1">
+        <v>83</v>
+      </c>
+      <c t="s" s="1" r="CG1">
+        <v>84</v>
+      </c>
+      <c t="s" s="1" r="CH1">
+        <v>85</v>
+      </c>
+      <c t="s" s="1" r="CI1">
+        <v>86</v>
+      </c>
+      <c t="s" s="1" r="CJ1">
+        <v>87</v>
+      </c>
+      <c t="s" s="1" r="CK1">
+        <v>88</v>
+      </c>
+      <c t="s" s="1" r="CL1">
+        <v>89</v>
+      </c>
+      <c t="s" s="1" r="CM1">
+        <v>90</v>
+      </c>
+      <c t="s" s="1" r="CN1">
+        <v>91</v>
+      </c>
+      <c t="s" s="1" r="CO1">
+        <v>92</v>
+      </c>
+      <c t="s" s="1" r="CP1">
+        <v>93</v>
+      </c>
+      <c t="s" s="1" r="CQ1">
+        <v>94</v>
+      </c>
+      <c t="s" s="1" r="CR1">
+        <v>95</v>
+      </c>
+      <c t="s" s="1" r="CS1">
+        <v>96</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2004.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>97</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
-      </c>
-      <c t="s" s="1" r="J2">
-        <v>10</v>
-      </c>
-      <c t="s" s="1" r="K2">
-        <v>11</v>
-      </c>
-      <c t="s" s="1" r="L2">
-        <v>12</v>
-      </c>
-      <c t="s" s="1" r="M2">
-        <v>13</v>
-      </c>
-      <c t="s" s="1" r="N2">
-        <v>14</v>
-      </c>
-      <c t="s" s="1" r="O2">
-        <v>15</v>
-      </c>
-      <c t="s" s="1" r="P2">
-        <v>16</v>
-      </c>
-      <c t="s" s="1" r="Q2">
-        <v>17</v>
-      </c>
-      <c t="s" s="1" r="R2">
-        <v>18</v>
-      </c>
-      <c t="s" s="1" r="S2">
-        <v>19</v>
-      </c>
-      <c t="s" s="1" r="T2">
-        <v>20</v>
-      </c>
-      <c t="s" s="1" r="U2">
-        <v>21</v>
-      </c>
-      <c t="s" s="1" r="V2">
-        <v>22</v>
-      </c>
-      <c t="s" s="1" r="W2">
-        <v>23</v>
-      </c>
-      <c t="s" s="1" r="X2">
-        <v>24</v>
-      </c>
-      <c t="s" s="1" r="Y2">
-        <v>25</v>
-      </c>
-      <c t="s" s="1" r="Z2">
-        <v>26</v>
-      </c>
-      <c t="s" s="1" r="AA2">
-        <v>27</v>
-      </c>
-      <c t="s" s="1" r="AB2">
-        <v>28</v>
-      </c>
-      <c t="s" s="1" r="AC2">
-        <v>29</v>
-      </c>
-      <c t="s" s="1" r="AD2">
-        <v>30</v>
-      </c>
-      <c t="s" s="1" r="AE2">
-        <v>31</v>
-      </c>
-      <c t="s" s="1" r="AF2">
-        <v>32</v>
-      </c>
-      <c t="s" s="1" r="AG2">
-        <v>33</v>
-      </c>
-      <c t="s" s="1" r="AH2">
-        <v>34</v>
-      </c>
-      <c t="s" s="1" r="AI2">
-        <v>35</v>
-      </c>
-      <c t="s" s="1" r="AJ2">
-        <v>36</v>
-      </c>
-      <c t="s" s="1" r="AK2">
-        <v>37</v>
-      </c>
-      <c t="s" s="1" r="AL2">
-        <v>38</v>
-      </c>
-      <c t="s" s="1" r="AM2">
-        <v>39</v>
-      </c>
-      <c t="s" s="1" r="AN2">
-        <v>40</v>
-      </c>
-      <c t="s" s="1" r="AO2">
-        <v>41</v>
-      </c>
-      <c t="s" s="1" r="AP2">
-        <v>42</v>
-      </c>
-      <c t="s" s="1" r="AQ2">
-        <v>43</v>
-      </c>
-      <c t="s" s="1" r="AR2">
-        <v>44</v>
-      </c>
-      <c t="s" s="1" r="AS2">
-        <v>45</v>
-      </c>
-      <c t="s" s="1" r="AT2">
-        <v>46</v>
-      </c>
-      <c t="s" s="1" r="AU2">
-        <v>47</v>
-      </c>
-      <c t="s" s="1" r="AV2">
-        <v>48</v>
-      </c>
-      <c t="s" s="1" r="AW2">
-        <v>49</v>
-      </c>
-      <c t="s" s="1" r="AX2">
-        <v>50</v>
-      </c>
-      <c t="s" s="1" r="AY2">
-        <v>51</v>
-      </c>
-      <c t="s" s="1" r="AZ2">
-        <v>52</v>
-      </c>
-      <c t="s" s="1" r="BA2">
-        <v>53</v>
-      </c>
-      <c t="s" s="1" r="BB2">
-        <v>54</v>
-      </c>
-      <c t="s" s="1" r="BC2">
-        <v>55</v>
-      </c>
-      <c t="s" s="1" r="BD2">
-        <v>56</v>
-      </c>
-      <c t="s" s="1" r="BE2">
-        <v>57</v>
-      </c>
-      <c t="s" s="1" r="BF2">
-        <v>58</v>
-      </c>
-      <c t="s" s="1" r="BG2">
-        <v>59</v>
-      </c>
-      <c t="s" s="1" r="BH2">
-        <v>60</v>
-      </c>
-      <c t="s" s="1" r="BI2">
-        <v>61</v>
-      </c>
-      <c t="s" s="1" r="BJ2">
-        <v>62</v>
-      </c>
-      <c t="s" s="1" r="BK2">
-        <v>63</v>
-      </c>
-      <c t="s" s="1" r="BL2">
-        <v>64</v>
-      </c>
-      <c t="s" s="1" r="BM2">
-        <v>65</v>
-      </c>
-      <c t="s" s="1" r="BN2">
-        <v>66</v>
-      </c>
-      <c t="s" s="1" r="BO2">
-        <v>67</v>
-      </c>
-      <c t="s" s="1" r="BP2">
-        <v>68</v>
-      </c>
-      <c t="s" s="1" r="BQ2">
-        <v>69</v>
-      </c>
-      <c t="s" s="1" r="BR2">
-        <v>70</v>
-      </c>
-      <c t="s" s="1" r="BS2">
-        <v>71</v>
-      </c>
-      <c t="s" s="1" r="BT2">
-        <v>72</v>
-      </c>
-      <c t="s" s="1" r="BU2">
-        <v>73</v>
-      </c>
-      <c t="s" s="1" r="BV2">
-        <v>74</v>
-      </c>
-      <c t="s" s="1" r="BW2">
-        <v>75</v>
-      </c>
-      <c t="s" s="1" r="BX2">
-        <v>76</v>
-      </c>
-      <c t="s" s="1" r="BY2">
-        <v>77</v>
-      </c>
-      <c t="s" s="1" r="BZ2">
-        <v>78</v>
-      </c>
-      <c t="s" s="1" r="CA2">
-        <v>79</v>
-      </c>
-      <c t="s" s="1" r="CB2">
-        <v>80</v>
-      </c>
-      <c t="s" s="1" r="CC2">
-        <v>81</v>
-      </c>
-      <c t="s" s="1" r="CD2">
-        <v>82</v>
-      </c>
-      <c t="s" s="1" r="CE2">
-        <v>83</v>
-      </c>
-      <c t="s" s="1" r="CF2">
-        <v>84</v>
-      </c>
-      <c t="s" s="1" r="CG2">
-        <v>85</v>
-      </c>
-      <c t="s" s="1" r="CH2">
-        <v>86</v>
-      </c>
-      <c t="s" s="1" r="CI2">
-        <v>87</v>
-      </c>
-      <c t="s" s="1" r="CJ2">
-        <v>88</v>
-      </c>
-      <c t="s" s="1" r="CK2">
-        <v>89</v>
-      </c>
-      <c t="s" s="1" r="CL2">
-        <v>90</v>
-      </c>
-      <c t="s" s="1" r="CM2">
-        <v>91</v>
-      </c>
-      <c t="s" s="1" r="CN2">
-        <v>92</v>
-      </c>
-      <c t="s" s="1" r="CO2">
-        <v>93</v>
-      </c>
-      <c t="s" s="1" r="CP2">
-        <v>94</v>
-      </c>
-      <c t="s" s="1" r="CQ2">
-        <v>95</v>
-      </c>
-      <c t="s" s="1" r="CR2">
-        <v>96</v>
-      </c>
-      <c t="s" s="1" r="CS2">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c s="1" r="F2">
+        <v>459.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="U2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AB2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AI2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AP2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AW2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BD2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BK2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BR2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -2013,13 +2055,13 @@
         <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F3">
         <v>459.0</v>
@@ -2063,13 +2105,13 @@
         <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F4">
         <v>459.0</v>
@@ -2110,19 +2152,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B5">
-        <v>419022.0</v>
+        <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F5">
-        <v>459.0</v>
+        <v>611.0</v>
       </c>
       <c s="1" r="G5">
         <v>0.0</v>
@@ -2160,19 +2202,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B6">
-        <v>231411.0</v>
+        <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D6">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F6">
-        <v>611.0</v>
+        <v>2875.0</v>
       </c>
       <c s="1" r="G6">
         <v>0.0</v>
@@ -2213,13 +2255,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D7">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F7">
         <v>2875.0</v>
@@ -2263,13 +2305,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D8">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F8">
         <v>2875.0</v>
@@ -2313,13 +2355,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D9">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F9">
         <v>2875.0</v>
@@ -2363,13 +2405,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D10">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F10">
         <v>2875.0</v>
@@ -2413,13 +2455,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D11">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F11">
         <v>2875.0</v>
@@ -2463,13 +2505,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D12">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F12">
         <v>2875.0</v>
@@ -2513,13 +2555,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D13">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F13">
         <v>2875.0</v>
@@ -2563,13 +2605,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c s="1" r="D14">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c s="1" r="F14">
         <v>2875.0</v>
@@ -2613,13 +2655,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c s="1" r="D15">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c s="1" r="F15">
         <v>2875.0</v>
@@ -2663,13 +2705,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c s="1" r="D16">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c s="1" r="F16">
         <v>2875.0</v>
@@ -2710,19 +2752,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B17">
-        <v>232797.0</v>
+        <v>432348.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c s="1" r="D17">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c s="1" r="F17">
-        <v>2875.0</v>
+        <v>369.0</v>
       </c>
       <c s="1" r="G17">
         <v>0.0</v>
@@ -2760,19 +2802,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B18">
-        <v>432348.0</v>
+        <v>419457.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c s="1" r="D18">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c s="1" r="F18">
-        <v>369.0</v>
+        <v>789.0</v>
       </c>
       <c s="1" r="G18">
         <v>0.0</v>
@@ -2810,19 +2852,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B19">
-        <v>419457.0</v>
+        <v>231420.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c s="1" r="D19">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c s="1" r="F19">
-        <v>789.0</v>
+        <v>2719.0</v>
       </c>
       <c s="1" r="G19">
         <v>0.0</v>
@@ -2860,19 +2902,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B20">
-        <v>231420.0</v>
+        <v>427973.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c s="1" r="D20">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c s="1" r="F20">
-        <v>2719.0</v>
+        <v>201.0</v>
       </c>
       <c s="1" r="G20">
         <v>0.0</v>
@@ -2910,19 +2952,16 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B21">
-        <v>427973.0</v>
+        <v>445762.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c s="1" r="D21">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>135</v>
-      </c>
-      <c s="1" r="F21">
-        <v>201.0</v>
+        <v>136</v>
       </c>
       <c s="1" r="G21">
         <v>0.0</v>
@@ -2960,16 +2999,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B22">
-        <v>445762.0</v>
+        <v>445595.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c s="1" r="D22">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c s="1" r="F22">
+        <v>156.0</v>
       </c>
       <c s="1" r="G22">
         <v>0.0</v>
@@ -3007,19 +3049,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B23">
-        <v>445595.0</v>
+        <v>366793.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c s="1" r="D23">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c s="1" r="F23">
-        <v>156.0</v>
+        <v>202.0</v>
       </c>
       <c s="1" r="G23">
         <v>0.0</v>
@@ -3057,19 +3099,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B24">
-        <v>366793.0</v>
+        <v>231280.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c s="1" r="D24">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c s="1" r="F24">
-        <v>202.0</v>
+        <v>83.0</v>
       </c>
       <c s="1" r="G24">
         <v>0.0</v>
@@ -3107,19 +3149,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B25">
-        <v>231280.0</v>
+        <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c s="1" r="D25">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c s="1" r="F25">
-        <v>83.0</v>
+        <v>3942.0</v>
       </c>
       <c s="1" r="G25">
         <v>0.0</v>
@@ -3160,13 +3202,13 @@
         <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c s="1" r="D26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c s="1" r="F26">
         <v>3942.0</v>
@@ -3210,13 +3252,13 @@
         <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c s="1" r="D27">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c s="1" r="F27">
         <v>3942.0</v>
@@ -3257,19 +3299,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B28">
-        <v>231536.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c s="1" r="D28">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c s="1" r="F28">
-        <v>3942.0</v>
+        <v>814.0</v>
       </c>
       <c s="1" r="G28">
         <v>0.0</v>
@@ -3307,19 +3349,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B29">
-        <v>231554.0</v>
+        <v>233356.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c s="1" r="F29">
-        <v>814.0</v>
+        <v>452.0</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
@@ -3357,19 +3399,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B30">
-        <v>233356.0</v>
+        <v>231572.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c s="1" r="D30">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c s="1" r="F30">
-        <v>452.0</v>
+        <v>62.0</v>
       </c>
       <c s="1" r="G30">
         <v>0.0</v>
@@ -3407,19 +3449,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B31">
-        <v>231572.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c s="1" r="D31">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c s="1" r="F31">
-        <v>62.0</v>
+        <v>1532.0</v>
       </c>
       <c s="1" r="G31">
         <v>0.0</v>
@@ -3457,19 +3499,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B32">
-        <v>231581.0</v>
+        <v>231828.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c s="1" r="D32">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c s="1" r="F32">
-        <v>1532.0</v>
+        <v>470.0</v>
       </c>
       <c s="1" r="G32">
         <v>0.0</v>
@@ -3507,19 +3549,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B33">
-        <v>231828.0</v>
+        <v>231785.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c s="1" r="D33">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c s="1" r="F33">
-        <v>470.0</v>
+        <v>455.0</v>
       </c>
       <c s="1" r="G33">
         <v>0.0</v>
@@ -3557,19 +3599,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B34">
-        <v>231785.0</v>
+        <v>441858.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c s="1" r="D34">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c s="1" r="F34">
-        <v>455.0</v>
+        <v>179.0</v>
       </c>
       <c s="1" r="G34">
         <v>0.0</v>
@@ -3583,16 +3625,7 @@
       <c s="1" r="AB34">
         <v>0.0</v>
       </c>
-      <c s="1" r="AI34">
-        <v>0.0</v>
-      </c>
       <c s="1" r="AP34">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AW34">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BD34">
         <v>0.0</v>
       </c>
       <c s="1" r="BK34">
@@ -3607,19 +3640,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B35">
-        <v>441858.0</v>
+        <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c s="1" r="D35">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c s="1" r="F35">
-        <v>179.0</v>
+        <v>4480.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
@@ -3633,7 +3666,16 @@
       <c s="1" r="AB35">
         <v>0.0</v>
       </c>
+      <c s="1" r="AI35">
+        <v>0.0</v>
+      </c>
       <c s="1" r="AP35">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AW35">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BD35">
         <v>0.0</v>
       </c>
       <c s="1" r="BK35">
@@ -3651,13 +3693,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c s="1" r="D36">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c s="1" r="F36">
         <v>4480.0</v>
@@ -3701,13 +3743,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c s="1" r="D37">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c s="1" r="F37">
         <v>4480.0</v>
@@ -3748,19 +3790,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B38">
-        <v>231697.0</v>
+        <v>420024.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c s="1" r="D38">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c s="1" r="F38">
-        <v>4480.0</v>
+        <v>211.0</v>
       </c>
       <c s="1" r="G38">
         <v>0.0</v>
@@ -3798,19 +3840,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B39">
-        <v>420024.0</v>
+        <v>377449.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c s="1" r="D39">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c s="1" r="F39">
-        <v>211.0</v>
+        <v>278.0</v>
       </c>
       <c s="1" r="G39">
         <v>0.0</v>
@@ -3848,19 +3890,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B40">
-        <v>377449.0</v>
+        <v>377458.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c s="1" r="D40">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c s="1" r="F40">
-        <v>278.0</v>
+        <v>406.0</v>
       </c>
       <c s="1" r="G40">
         <v>0.0</v>
@@ -3898,19 +3940,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B41">
-        <v>377458.0</v>
+        <v>427982.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c s="1" r="D41">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c s="1" r="F41">
-        <v>406.0</v>
+        <v>240.0</v>
       </c>
       <c s="1" r="G41">
         <v>0.0</v>
@@ -3948,19 +3990,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B42">
-        <v>427982.0</v>
+        <v>440378.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c s="1" r="D42">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c s="1" r="F42">
-        <v>240.0</v>
+        <v>107.0</v>
       </c>
       <c s="1" r="G42">
         <v>0.0</v>
@@ -3998,19 +4040,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B43">
-        <v>440378.0</v>
+        <v>232016.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c s="1" r="D43">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c s="1" r="F43">
-        <v>107.0</v>
+        <v>569.0</v>
       </c>
       <c s="1" r="G43">
         <v>0.0</v>
@@ -4048,19 +4090,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B44">
-        <v>232016.0</v>
+        <v>427894.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c s="1" r="D44">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="1" r="F44">
-        <v>569.0</v>
+        <v>158.0</v>
       </c>
       <c s="1" r="G44">
         <v>0.0</v>
@@ -4098,19 +4140,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B45">
-        <v>427894.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c s="1" r="D45">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c s="1" r="F45">
-        <v>158.0</v>
+        <v>4681.0</v>
       </c>
       <c s="1" r="G45">
         <v>0.0</v>
@@ -4148,19 +4190,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B46">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c s="1" r="D46">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c s="1" r="F46">
-        <v>4681.0</v>
+        <v>7575.0</v>
       </c>
       <c s="1" r="G46">
         <v>0.0</v>
@@ -4198,19 +4240,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B47">
-        <v>231624.0</v>
+        <v>377403.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c s="1" r="D47">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c s="1" r="F47">
-        <v>7575.0</v>
+        <v>45.0</v>
       </c>
       <c s="1" r="G47">
         <v>0.0</v>
@@ -4248,19 +4290,16 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B48">
-        <v>377403.0</v>
+        <v>446206.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c s="1" r="D48">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>189</v>
-      </c>
-      <c s="1" r="F48">
-        <v>45.0</v>
+        <v>190</v>
       </c>
       <c s="1" r="G48">
         <v>0.0</v>
@@ -4298,16 +4337,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B49">
-        <v>446206.0</v>
+        <v>231873.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c s="1" r="D49">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c s="1" r="F49">
+        <v>1487.0</v>
       </c>
       <c s="1" r="G49">
         <v>0.0</v>
@@ -4345,19 +4387,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B50">
-        <v>231873.0</v>
+        <v>231882.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c s="1" r="D50">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c s="1" r="F50">
-        <v>1487.0</v>
+        <v>4060.0</v>
       </c>
       <c s="1" r="G50">
         <v>0.0</v>
@@ -4395,19 +4437,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B51">
-        <v>231882.0</v>
+        <v>232724.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="1" r="D51">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c s="1" r="F51">
-        <v>4060.0</v>
+        <v>123.0</v>
       </c>
       <c s="1" r="G51">
         <v>0.0</v>
@@ -4445,19 +4487,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B52">
-        <v>232724.0</v>
+        <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c s="1" r="D52">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c s="1" r="F52">
-        <v>123.0</v>
+        <v>818.0</v>
       </c>
       <c s="1" r="G52">
         <v>0.0</v>
@@ -4498,13 +4540,13 @@
         <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c s="1" r="D53">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c s="1" r="F53">
         <v>818.0</v>
@@ -4545,19 +4587,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B54">
-        <v>440536.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c s="1" r="D54">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c s="1" r="F54">
-        <v>818.0</v>
+        <v>1297.0</v>
       </c>
       <c s="1" r="G54">
         <v>0.0</v>
@@ -4595,19 +4637,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B55">
-        <v>232043.0</v>
+        <v>232052.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c s="1" r="D55">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c s="1" r="F55">
-        <v>1297.0</v>
+        <v>1017.0</v>
       </c>
       <c s="1" r="G55">
         <v>0.0</v>
@@ -4645,19 +4687,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B56">
-        <v>232052.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C56">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c s="1" r="D56">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E56">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c s="1" r="F56">
-        <v>1017.0</v>
+        <v>689.0</v>
       </c>
       <c s="1" r="G56">
         <v>0.0</v>
@@ -4695,19 +4737,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B57">
-        <v>231970.0</v>
+        <v>248943.0</v>
       </c>
       <c t="s" s="1" r="C57">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c s="1" r="D57">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E57">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c s="1" r="F57">
-        <v>689.0</v>
+        <v>879.0</v>
       </c>
       <c s="1" r="G57">
         <v>0.0</v>
@@ -4748,13 +4790,13 @@
         <v>248943.0</v>
       </c>
       <c t="s" s="1" r="C58">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c s="1" r="D58">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E58">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c s="1" r="F58">
         <v>879.0</v>
@@ -4795,19 +4837,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B59">
-        <v>248943.0</v>
+        <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C59">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c s="1" r="D59">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E59">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c s="1" r="F59">
-        <v>879.0</v>
+        <v>4759.0</v>
       </c>
       <c s="1" r="G59">
         <v>0.0</v>
@@ -4848,13 +4890,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C60">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c s="1" r="D60">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E60">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c s="1" r="F60">
         <v>4759.0</v>
@@ -4898,13 +4940,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C61">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c s="1" r="D61">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E61">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c s="1" r="F61">
         <v>4759.0</v>
@@ -4948,13 +4990,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C62">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c s="1" r="D62">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E62">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c s="1" r="F62">
         <v>4759.0</v>
@@ -4998,13 +5040,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C63">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c s="1" r="D63">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E63">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c s="1" r="F63">
         <v>4759.0</v>
@@ -5048,13 +5090,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C64">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c s="1" r="D64">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E64">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c s="1" r="F64">
         <v>4759.0</v>
@@ -5098,13 +5140,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C65">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c s="1" r="D65">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E65">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c s="1" r="F65">
         <v>4759.0</v>
@@ -5148,13 +5190,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C66">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c s="1" r="D66">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E66">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c s="1" r="F66">
         <v>4759.0</v>
@@ -5198,13 +5240,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C67">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c s="1" r="D67">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E67">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="1" r="F67">
         <v>4759.0</v>
@@ -5245,19 +5287,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B68">
-        <v>248934.0</v>
+        <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C68">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c s="1" r="D68">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E68">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c s="1" r="F68">
-        <v>4759.0</v>
+        <v>306.0</v>
       </c>
       <c s="1" r="G68">
         <v>0.0</v>
@@ -5295,19 +5337,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B69">
-        <v>442806.0</v>
+        <v>232025.0</v>
       </c>
       <c t="s" s="1" r="C69">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c s="1" r="D69">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E69">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c s="1" r="F69">
-        <v>306.0</v>
+        <v>1028.0</v>
       </c>
       <c s="1" r="G69">
         <v>0.0</v>
@@ -5345,19 +5387,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B70">
-        <v>232025.0</v>
+        <v>444282.0</v>
       </c>
       <c t="s" s="1" r="C70">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c s="1" r="D70">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E70">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c s="1" r="F70">
-        <v>1028.0</v>
+        <v>99.0</v>
       </c>
       <c s="1" r="G70">
         <v>0.0</v>
@@ -5395,19 +5437,16 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B71">
-        <v>444282.0</v>
+        <v>437149.0</v>
       </c>
       <c t="s" s="1" r="C71">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c s="1" r="D71">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E71">
-        <v>235</v>
-      </c>
-      <c s="1" r="F71">
-        <v>99.0</v>
+        <v>236</v>
       </c>
       <c s="1" r="G71">
         <v>0.0</v>
@@ -5445,16 +5484,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B72">
-        <v>437149.0</v>
+        <v>442310.0</v>
       </c>
       <c t="s" s="1" r="C72">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c s="1" r="D72">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E72">
-        <v>237</v>
+        <v>238</v>
+      </c>
+      <c s="1" r="F72">
+        <v>203.0</v>
       </c>
       <c s="1" r="G72">
         <v>0.0</v>
@@ -5492,19 +5534,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B73">
-        <v>442310.0</v>
+        <v>438647.0</v>
       </c>
       <c t="s" s="1" r="C73">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c s="1" r="D73">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E73">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c s="1" r="F73">
-        <v>203.0</v>
+        <v>767.0</v>
       </c>
       <c s="1" r="G73">
         <v>0.0</v>
@@ -5542,19 +5584,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B74">
-        <v>438647.0</v>
+        <v>445470.0</v>
       </c>
       <c t="s" s="1" r="C74">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c s="1" r="D74">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E74">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c s="1" r="F74">
-        <v>767.0</v>
+        <v>118.0</v>
       </c>
       <c s="1" r="G74">
         <v>0.0</v>
@@ -5592,19 +5634,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B75">
-        <v>445470.0</v>
+        <v>232502.0</v>
       </c>
       <c t="s" s="1" r="C75">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="1" r="D75">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E75">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="1" r="F75">
-        <v>118.0</v>
+        <v>658.0</v>
       </c>
       <c s="1" r="G75">
         <v>0.0</v>
@@ -5642,19 +5684,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B76">
-        <v>232502.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C76">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c s="1" r="D76">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E76">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c s="1" r="F76">
-        <v>658.0</v>
+        <v>942.0</v>
       </c>
       <c s="1" r="G76">
         <v>0.0</v>
@@ -5692,19 +5734,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B77">
-        <v>232089.0</v>
+        <v>233329.0</v>
       </c>
       <c t="s" s="1" r="C77">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c s="1" r="D77">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E77">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c s="1" r="F77">
-        <v>942.0</v>
+        <v>232.0</v>
       </c>
       <c s="1" r="G77">
         <v>0.0</v>
@@ -5742,19 +5784,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B78">
-        <v>233329.0</v>
+        <v>382957.0</v>
       </c>
       <c t="s" s="1" r="C78">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c s="1" r="D78">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E78">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c s="1" r="F78">
-        <v>232.0</v>
+        <v>109.0</v>
       </c>
       <c s="1" r="G78">
         <v>0.0</v>
@@ -5792,19 +5834,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B79">
-        <v>382957.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C79">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c s="1" r="D79">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E79">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c s="1" r="F79">
-        <v>109.0</v>
+        <v>28874.0</v>
       </c>
       <c s="1" r="G79">
         <v>0.0</v>
@@ -5842,19 +5884,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B80">
-        <v>232186.0</v>
+        <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C80">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c s="1" r="D80">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E80">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c s="1" r="F80">
-        <v>28874.0</v>
+        <v>4799.0</v>
       </c>
       <c s="1" r="G80">
         <v>0.0</v>
@@ -5895,13 +5937,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C81">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c s="1" r="D81">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E81">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c s="1" r="F81">
         <v>4799.0</v>
@@ -5942,19 +5984,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B82">
-        <v>232195.0</v>
+        <v>406495.0</v>
       </c>
       <c t="s" s="1" r="C82">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c s="1" r="D82">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E82">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c s="1" r="F82">
-        <v>4799.0</v>
+        <v>304.0</v>
       </c>
       <c s="1" r="G82">
         <v>0.0</v>
@@ -5992,19 +6034,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B83">
-        <v>406495.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C83">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c s="1" r="D83">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E83">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c s="1" r="F83">
-        <v>304.0</v>
+        <v>1082.0</v>
       </c>
       <c s="1" r="G83">
         <v>0.0</v>
@@ -6042,19 +6084,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B84">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C84">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c s="1" r="D84">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E84">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c s="1" r="F84">
-        <v>1082.0</v>
+        <v>6154.0</v>
       </c>
       <c s="1" r="G84">
         <v>0.0</v>
@@ -6095,13 +6137,13 @@
         <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C85">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c s="1" r="D85">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E85">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c s="1" r="F85">
         <v>6154.0</v>
@@ -6145,13 +6187,13 @@
         <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C86">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c s="1" r="D86">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E86">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c s="1" r="F86">
         <v>6154.0</v>
@@ -6192,19 +6234,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B87">
-        <v>232265.0</v>
+        <v>431266.0</v>
       </c>
       <c t="s" s="1" r="C87">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c s="1" r="D87">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E87">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c s="1" r="F87">
-        <v>6154.0</v>
+        <v>115.0</v>
       </c>
       <c s="1" r="G87">
         <v>0.0</v>
@@ -6242,19 +6284,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B88">
-        <v>431266.0</v>
+        <v>233189.0</v>
       </c>
       <c t="s" s="1" r="C88">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c s="1" r="D88">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E88">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c s="1" r="F88">
-        <v>115.0</v>
+        <v>492.0</v>
       </c>
       <c s="1" r="G88">
         <v>0.0</v>
@@ -6292,19 +6334,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B89">
-        <v>233189.0</v>
+        <v>377421.0</v>
       </c>
       <c t="s" s="1" r="C89">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c s="1" r="D89">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E89">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c s="1" r="F89">
-        <v>492.0</v>
+        <v>166.0</v>
       </c>
       <c s="1" r="G89">
         <v>0.0</v>
@@ -6342,19 +6384,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B90">
-        <v>377421.0</v>
+        <v>232292.0</v>
       </c>
       <c t="s" s="1" r="C90">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c s="1" r="D90">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E90">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="1" r="F90">
-        <v>166.0</v>
+        <v>40.0</v>
       </c>
       <c s="1" r="G90">
         <v>0.0</v>
@@ -6392,19 +6434,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B91">
-        <v>232292.0</v>
+        <v>232308.0</v>
       </c>
       <c t="s" s="1" r="C91">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c s="1" r="D91">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E91">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c s="1" r="F91">
-        <v>40.0</v>
+        <v>1056.0</v>
       </c>
       <c s="1" r="G91">
         <v>0.0</v>
@@ -6442,19 +6484,16 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B92">
-        <v>232308.0</v>
+        <v>445869.0</v>
       </c>
       <c t="s" s="1" r="C92">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c s="1" r="D92">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E92">
-        <v>277</v>
-      </c>
-      <c s="1" r="F92">
-        <v>1056.0</v>
+        <v>278</v>
       </c>
       <c s="1" r="G92">
         <v>0.0</v>
@@ -6492,16 +6531,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B93">
-        <v>445869.0</v>
+        <v>418977.0</v>
       </c>
       <c t="s" s="1" r="C93">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c s="1" r="D93">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E93">
-        <v>279</v>
+        <v>280</v>
+      </c>
+      <c s="1" r="F93">
+        <v>12.0</v>
       </c>
       <c s="1" r="G93">
         <v>0.0</v>
@@ -6539,19 +6581,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B94">
-        <v>418977.0</v>
+        <v>441964.0</v>
       </c>
       <c t="s" s="1" r="C94">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c s="1" r="D94">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E94">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c s="1" r="F94">
-        <v>12.0</v>
+        <v>269.0</v>
       </c>
       <c s="1" r="G94">
         <v>0.0</v>
@@ -6589,19 +6631,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B95">
-        <v>441964.0</v>
+        <v>368601.0</v>
       </c>
       <c t="s" s="1" r="C95">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c s="1" r="D95">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E95">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c s="1" r="F95">
-        <v>269.0</v>
+        <v>662.0</v>
       </c>
       <c s="1" r="G95">
         <v>0.0</v>
@@ -6639,19 +6681,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B96">
-        <v>368601.0</v>
+        <v>437051.0</v>
       </c>
       <c t="s" s="1" r="C96">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c s="1" r="D96">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E96">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c s="1" r="F96">
-        <v>662.0</v>
+        <v>371.0</v>
       </c>
       <c s="1" r="G96">
         <v>0.0</v>
@@ -6689,19 +6731,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B97">
-        <v>437051.0</v>
+        <v>441955.0</v>
       </c>
       <c t="s" s="1" r="C97">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c s="1" r="D97">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E97">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c s="1" r="F97">
-        <v>371.0</v>
+        <v>626.0</v>
       </c>
       <c s="1" r="G97">
         <v>0.0</v>
@@ -6739,19 +6781,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B98">
-        <v>441955.0</v>
+        <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C98">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c s="1" r="D98">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E98">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c s="1" r="F98">
-        <v>626.0</v>
+        <v>11678.0</v>
       </c>
       <c s="1" r="G98">
         <v>0.0</v>
@@ -6792,13 +6834,13 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C99">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c s="1" r="D99">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E99">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c s="1" r="F99">
         <v>11678.0</v>
@@ -6842,13 +6884,13 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C100">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c s="1" r="D100">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E100">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c s="1" r="F100">
         <v>11678.0</v>
@@ -6889,19 +6931,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B101">
-        <v>232414.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C101">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c s="1" r="D101">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E101">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c s="1" r="F101">
-        <v>11678.0</v>
+        <v>16108.0</v>
       </c>
       <c s="1" r="G101">
         <v>0.0</v>
@@ -6942,13 +6984,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C102">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c s="1" r="D102">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E102">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c s="1" r="F102">
         <v>16108.0</v>
@@ -6992,13 +7034,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C103">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c s="1" r="D103">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E103">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c s="1" r="F103">
         <v>16108.0</v>
@@ -7039,19 +7081,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B104">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C104">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c s="1" r="D104">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E104">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c s="1" r="F104">
-        <v>16108.0</v>
+        <v>744.0</v>
       </c>
       <c s="1" r="G104">
         <v>0.0</v>
@@ -7092,13 +7134,13 @@
         <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C105">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c s="1" r="D105">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E105">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c s="1" r="F105">
         <v>744.0</v>
@@ -7139,19 +7181,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B106">
-        <v>231837.0</v>
+        <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C106">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c s="1" r="D106">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E106">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c s="1" r="F106">
-        <v>744.0</v>
+        <v>6092.0</v>
       </c>
       <c s="1" r="G106">
         <v>0.0</v>
@@ -7192,13 +7234,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C107">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c s="1" r="D107">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E107">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c s="1" r="F107">
         <v>6092.0</v>
@@ -7242,13 +7284,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C108">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c s="1" r="D108">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E108">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c s="1" r="F108">
         <v>6092.0</v>
@@ -7289,19 +7331,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B109">
-        <v>232450.0</v>
+        <v>232469.0</v>
       </c>
       <c t="s" s="1" r="C109">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c s="1" r="D109">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E109">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c s="1" r="F109">
-        <v>6092.0</v>
+        <v>399.0</v>
       </c>
       <c s="1" r="G109">
         <v>0.0</v>
@@ -7339,19 +7381,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B110">
-        <v>232469.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C110">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c s="1" r="D110">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E110">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c s="1" r="F110">
-        <v>399.0</v>
+        <v>10475.0</v>
       </c>
       <c s="1" r="G110">
         <v>0.0</v>
@@ -7389,19 +7431,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B111">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C111">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c s="1" r="D111">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E111">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c s="1" r="F111">
-        <v>10475.0</v>
+        <v>4289.0</v>
       </c>
       <c s="1" r="G111">
         <v>0.0</v>
@@ -7442,13 +7484,13 @@
         <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C112">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c s="1" r="D112">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E112">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c s="1" r="F112">
         <v>4289.0</v>
@@ -7489,19 +7531,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B113">
-        <v>232566.0</v>
+        <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C113">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c s="1" r="D113">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E113">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c s="1" r="F113">
-        <v>4289.0</v>
+        <v>5416.0</v>
       </c>
       <c s="1" r="G113">
         <v>0.0</v>
@@ -7542,13 +7584,13 @@
         <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C114">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c s="1" r="D114">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E114">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c s="1" r="F114">
         <v>5416.0</v>
@@ -7589,19 +7631,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B115">
-        <v>232575.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C115">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c s="1" r="D115">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E115">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c s="1" r="F115">
-        <v>5416.0</v>
+        <v>2248.0</v>
       </c>
       <c s="1" r="G115">
         <v>0.0</v>
@@ -7639,19 +7681,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B116">
-        <v>232609.0</v>
+        <v>232618.0</v>
       </c>
       <c t="s" s="1" r="C116">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c s="1" r="D116">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E116">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c s="1" r="F116">
-        <v>2248.0</v>
+        <v>169.0</v>
       </c>
       <c s="1" r="G116">
         <v>0.0</v>
@@ -7689,19 +7731,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B117">
-        <v>232618.0</v>
+        <v>232672.0</v>
       </c>
       <c t="s" s="1" r="C117">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c s="1" r="D117">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E117">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c s="1" r="F117">
-        <v>169.0</v>
+        <v>1718.0</v>
       </c>
       <c s="1" r="G117">
         <v>0.0</v>
@@ -7739,19 +7781,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B118">
-        <v>232672.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C118">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c s="1" r="D118">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E118">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c s="1" r="F118">
-        <v>1718.0</v>
+        <v>3717.0</v>
       </c>
       <c s="1" r="G118">
         <v>0.0</v>
@@ -7789,19 +7831,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B119">
-        <v>232706.0</v>
+        <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C119">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c s="1" r="D119">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E119">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c s="1" r="F119">
-        <v>3717.0</v>
+        <v>1295.0</v>
       </c>
       <c s="1" r="G119">
         <v>0.0</v>
@@ -7842,13 +7884,13 @@
         <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C120">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c s="1" r="D120">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E120">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c s="1" r="F120">
         <v>1295.0</v>
@@ -7892,13 +7934,13 @@
         <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C121">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c s="1" r="D121">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E121">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c s="1" r="F121">
         <v>1295.0</v>
@@ -7939,19 +7981,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B122">
-        <v>231642.0</v>
+        <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C122">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c s="1" r="D122">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E122">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c s="1" r="F122">
-        <v>1295.0</v>
+        <v>1324.0</v>
       </c>
       <c s="1" r="G122">
         <v>0.0</v>
@@ -7992,13 +8034,13 @@
         <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C123">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c s="1" r="D123">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E123">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c s="1" r="F123">
         <v>1324.0</v>
@@ -8042,13 +8084,13 @@
         <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C124">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c s="1" r="D124">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E124">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c s="1" r="F124">
         <v>1324.0</v>
@@ -8089,19 +8131,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B125">
-        <v>131742.0</v>
+        <v>233091.0</v>
       </c>
       <c t="s" s="1" r="C125">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c s="1" r="D125">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E125">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c s="1" r="F125">
-        <v>1324.0</v>
+        <v>237.0</v>
       </c>
       <c s="1" r="G125">
         <v>0.0</v>
@@ -8142,13 +8184,13 @@
         <v>233091.0</v>
       </c>
       <c t="s" s="1" r="C126">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c s="1" r="D126">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E126">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c s="1" r="F126">
         <v>237.0</v>
@@ -8189,19 +8231,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B127">
-        <v>233091.0</v>
+        <v>232788.0</v>
       </c>
       <c t="s" s="1" r="C127">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c s="1" r="D127">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E127">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c s="1" r="F127">
-        <v>237.0</v>
+        <v>2906.0</v>
       </c>
       <c s="1" r="G127">
         <v>0.0</v>
@@ -8239,19 +8281,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B128">
-        <v>232788.0</v>
+        <v>419004.0</v>
       </c>
       <c t="s" s="1" r="C128">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c s="1" r="D128">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E128">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c s="1" r="F128">
-        <v>2906.0</v>
+        <v>152.0</v>
       </c>
       <c s="1" r="G128">
         <v>0.0</v>
@@ -8289,19 +8331,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B129">
-        <v>419004.0</v>
+        <v>232867.0</v>
       </c>
       <c t="s" s="1" r="C129">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c s="1" r="D129">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E129">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c s="1" r="F129">
-        <v>152.0</v>
+        <v>4103.0</v>
       </c>
       <c s="1" r="G129">
         <v>0.0</v>
@@ -8339,19 +8381,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B130">
-        <v>232867.0</v>
+        <v>433299.0</v>
       </c>
       <c t="s" s="1" r="C130">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c s="1" r="D130">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E130">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c s="1" r="F130">
-        <v>4103.0</v>
+        <v>58.0</v>
       </c>
       <c s="1" r="G130">
         <v>0.0</v>
@@ -8389,19 +8431,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B131">
-        <v>433299.0</v>
+        <v>233417.0</v>
       </c>
       <c t="s" s="1" r="C131">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c s="1" r="D131">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E131">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c s="1" r="F131">
-        <v>58.0</v>
+        <v>56.0</v>
       </c>
       <c s="1" r="G131">
         <v>0.0</v>
@@ -8439,19 +8481,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B132">
-        <v>233417.0</v>
+        <v>232937.0</v>
       </c>
       <c t="s" s="1" r="C132">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c s="1" r="D132">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E132">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c s="1" r="F132">
-        <v>56.0</v>
+        <v>6165.0</v>
       </c>
       <c s="1" r="G132">
         <v>0.0</v>
@@ -8489,19 +8531,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B133">
-        <v>232937.0</v>
+        <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C133">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c s="1" r="D133">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E133">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c s="1" r="F133">
-        <v>6165.0</v>
+        <v>37392.0</v>
       </c>
       <c s="1" r="G133">
         <v>0.0</v>
@@ -8542,13 +8584,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C134">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c s="1" r="D134">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E134">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c s="1" r="F134">
         <v>37392.0</v>
@@ -8592,13 +8634,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C135">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c s="1" r="D135">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E135">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c s="1" r="F135">
         <v>37392.0</v>
@@ -8642,13 +8684,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C136">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c s="1" r="D136">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E136">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c s="1" r="F136">
         <v>37392.0</v>
@@ -8692,13 +8734,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C137">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c s="1" r="D137">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E137">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c s="1" r="F137">
         <v>37392.0</v>
@@ -8742,13 +8784,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C138">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c s="1" r="D138">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E138">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c s="1" r="F138">
         <v>37392.0</v>
@@ -8789,19 +8831,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B139">
-        <v>232946.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C139">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c s="1" r="D139">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E139">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c s="1" r="F139">
-        <v>37392.0</v>
+        <v>20595.0</v>
       </c>
       <c s="1" r="G139">
         <v>0.0</v>
@@ -8839,19 +8881,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B140">
-        <v>232982.0</v>
+        <v>233019.0</v>
       </c>
       <c t="s" s="1" r="C140">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c s="1" r="D140">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E140">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c s="1" r="F140">
-        <v>20595.0</v>
+        <v>3341.0</v>
       </c>
       <c s="1" r="G140">
         <v>0.0</v>
@@ -8889,19 +8931,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B141">
-        <v>233019.0</v>
+        <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C141">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c s="1" r="D141">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E141">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c s="1" r="F141">
-        <v>3341.0</v>
+        <v>1468.0</v>
       </c>
       <c s="1" r="G141">
         <v>0.0</v>
@@ -8942,13 +8984,13 @@
         <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C142">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c s="1" r="D142">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E142">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c s="1" r="F142">
         <v>1468.0</v>
@@ -8989,19 +9031,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B143">
-        <v>233037.0</v>
+        <v>233116.0</v>
       </c>
       <c t="s" s="1" r="C143">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c s="1" r="D143">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E143">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c s="1" r="F143">
-        <v>1468.0</v>
+        <v>4358.0</v>
       </c>
       <c s="1" r="G143">
         <v>0.0</v>
@@ -9039,19 +9081,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B144">
-        <v>233116.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C144">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c s="1" r="D144">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E144">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c s="1" r="F144">
-        <v>4358.0</v>
+        <v>9329.0</v>
       </c>
       <c s="1" r="G144">
         <v>0.0</v>
@@ -9089,19 +9131,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B145">
-        <v>233277.0</v>
+        <v>233301.0</v>
       </c>
       <c t="s" s="1" r="C145">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c s="1" r="D145">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E145">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c s="1" r="F145">
-        <v>9329.0</v>
+        <v>732.0</v>
       </c>
       <c s="1" r="G145">
         <v>0.0</v>
@@ -9139,19 +9181,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B146">
-        <v>233301.0</v>
+        <v>233295.0</v>
       </c>
       <c t="s" s="1" r="C146">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c s="1" r="D146">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E146">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c s="1" r="F146">
-        <v>732.0</v>
+        <v>1126.0</v>
       </c>
       <c s="1" r="G146">
         <v>0.0</v>
@@ -9189,19 +9231,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B147">
-        <v>233295.0</v>
+        <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C147">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c s="1" r="D147">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E147">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c s="1" r="F147">
-        <v>1126.0</v>
+        <v>2691.0</v>
       </c>
       <c s="1" r="G147">
         <v>0.0</v>
@@ -9242,13 +9284,13 @@
         <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C148">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c s="1" r="D148">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E148">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c s="1" r="F148">
         <v>2691.0</v>
@@ -9289,19 +9331,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B149">
-        <v>233310.0</v>
+        <v>231651.0</v>
       </c>
       <c t="s" s="1" r="C149">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c s="1" r="D149">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E149">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c s="1" r="F149">
-        <v>2691.0</v>
+        <v>3444.0</v>
       </c>
       <c s="1" r="G149">
         <v>0.0</v>
@@ -9342,13 +9384,13 @@
         <v>231651.0</v>
       </c>
       <c t="s" s="1" r="C150">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c s="1" r="D150">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E150">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c s="1" r="F150">
         <v>3444.0</v>
@@ -9389,19 +9431,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B151">
-        <v>231651.0</v>
+        <v>233338.0</v>
       </c>
       <c t="s" s="1" r="C151">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c s="1" r="D151">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E151">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c s="1" r="F151">
-        <v>3444.0</v>
+        <v>1409.0</v>
       </c>
       <c s="1" r="G151">
         <v>0.0</v>
@@ -9439,19 +9481,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B152">
-        <v>233338.0</v>
+        <v>437769.0</v>
       </c>
       <c t="s" s="1" r="C152">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c s="1" r="D152">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E152">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c s="1" r="F152">
-        <v>1409.0</v>
+        <v>436.0</v>
       </c>
       <c s="1" r="G152">
         <v>0.0</v>
@@ -9489,19 +9531,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B153">
-        <v>437769.0</v>
+        <v>233408.0</v>
       </c>
       <c t="s" s="1" r="C153">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c s="1" r="D153">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E153">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c s="1" r="F153">
-        <v>436.0</v>
+        <v>155.0</v>
       </c>
       <c s="1" r="G153">
         <v>0.0</v>
@@ -9539,19 +9581,16 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B154">
-        <v>233408.0</v>
+        <v>435213.0</v>
       </c>
       <c t="s" s="1" r="C154">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c s="1" r="D154">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E154">
-        <v>401</v>
-      </c>
-      <c s="1" r="F154">
-        <v>155.0</v>
+        <v>402</v>
       </c>
       <c s="1" r="G154">
         <v>0.0</v>
@@ -9589,16 +9628,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B155">
-        <v>435213.0</v>
+        <v>233426.0</v>
       </c>
       <c t="s" s="1" r="C155">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c s="1" r="D155">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E155">
-        <v>403</v>
+        <v>404</v>
+      </c>
+      <c s="1" r="F155">
+        <v>1850.0</v>
       </c>
       <c s="1" r="G155">
         <v>0.0</v>
@@ -9636,19 +9678,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B156">
-        <v>233426.0</v>
+        <v>441876.0</v>
       </c>
       <c t="s" s="1" r="C156">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c s="1" r="D156">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E156">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c s="1" r="F156">
-        <v>1850.0</v>
+        <v>60.0</v>
       </c>
       <c s="1" r="G156">
         <v>0.0</v>
@@ -9686,19 +9728,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B157">
-        <v>441876.0</v>
+        <v>233499.0</v>
       </c>
       <c t="s" s="1" r="C157">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c s="1" r="D157">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E157">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c s="1" r="F157">
-        <v>60.0</v>
+        <v>627.0</v>
       </c>
       <c s="1" r="G157">
         <v>0.0</v>
@@ -9736,19 +9778,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B158">
-        <v>233499.0</v>
+        <v>234216.0</v>
       </c>
       <c t="s" s="1" r="C158">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c s="1" r="D158">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E158">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c s="1" r="F158">
-        <v>627.0</v>
+        <v>833.0</v>
       </c>
       <c s="1" r="G158">
         <v>0.0</v>
@@ -9786,19 +9828,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B159">
-        <v>234216.0</v>
+        <v>232885.0</v>
       </c>
       <c t="s" s="1" r="C159">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c s="1" r="D159">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E159">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c s="1" r="F159">
-        <v>833.0</v>
+        <v>249.0</v>
       </c>
       <c s="1" r="G159">
         <v>0.0</v>
@@ -9836,19 +9878,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B160">
-        <v>232885.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C160">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c s="1" r="D160">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E160">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c s="1" r="F160">
-        <v>249.0</v>
+        <v>3000.0</v>
       </c>
       <c s="1" r="G160">
         <v>0.0</v>
@@ -9886,19 +9928,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B161">
-        <v>233541.0</v>
+        <v>261931.0</v>
       </c>
       <c t="s" s="1" r="C161">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c s="1" r="D161">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E161">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c s="1" r="F161">
-        <v>3000.0</v>
+        <v>340.0</v>
       </c>
       <c s="1" r="G161">
         <v>0.0</v>
@@ -9936,19 +9978,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B162">
-        <v>261931.0</v>
+        <v>233611.0</v>
       </c>
       <c t="s" s="1" r="C162">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c s="1" r="D162">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E162">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c s="1" r="F162">
-        <v>340.0</v>
+        <v>581.0</v>
       </c>
       <c s="1" r="G162">
         <v>0.0</v>
@@ -9986,19 +10028,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B163">
-        <v>233611.0</v>
+        <v>233082.0</v>
       </c>
       <c t="s" s="1" r="C163">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c s="1" r="D163">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E163">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c s="1" r="F163">
-        <v>581.0</v>
+        <v>194.0</v>
       </c>
       <c s="1" r="G163">
         <v>0.0</v>
@@ -10036,19 +10078,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B164">
-        <v>233082.0</v>
+        <v>233639.0</v>
       </c>
       <c t="s" s="1" r="C164">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c s="1" r="D164">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E164">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c s="1" r="F164">
-        <v>194.0</v>
+        <v>4686.0</v>
       </c>
       <c s="1" r="G164">
         <v>0.0</v>
@@ -10086,19 +10128,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B165">
-        <v>233639.0</v>
+        <v>233648.0</v>
       </c>
       <c t="s" s="1" r="C165">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c s="1" r="D165">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E165">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c s="1" r="F165">
-        <v>4686.0</v>
+        <v>3835.0</v>
       </c>
       <c s="1" r="G165">
         <v>0.0</v>
@@ -10136,19 +10178,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B166">
-        <v>233648.0</v>
+        <v>233657.0</v>
       </c>
       <c t="s" s="1" r="C166">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c s="1" r="D166">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E166">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c s="1" r="F166">
-        <v>3835.0</v>
+        <v>140.0</v>
       </c>
       <c s="1" r="G166">
         <v>0.0</v>
@@ -10186,19 +10228,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B167">
-        <v>233657.0</v>
+        <v>233666.0</v>
       </c>
       <c t="s" s="1" r="C167">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c s="1" r="D167">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E167">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c s="1" r="F167">
-        <v>140.0</v>
+        <v>32.0</v>
       </c>
       <c s="1" r="G167">
         <v>0.0</v>
@@ -10236,19 +10278,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B168">
-        <v>233666.0</v>
+        <v>438498.0</v>
       </c>
       <c t="s" s="1" r="C168">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c s="1" r="D168">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E168">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c s="1" r="F168">
-        <v>32.0</v>
+        <v>385.0</v>
       </c>
       <c s="1" r="G168">
         <v>0.0</v>
@@ -10286,19 +10328,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B169">
-        <v>438498.0</v>
+        <v>231721.0</v>
       </c>
       <c t="s" s="1" r="C169">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c s="1" r="D169">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E169">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c s="1" r="F169">
-        <v>385.0</v>
+        <v>54.0</v>
       </c>
       <c s="1" r="G169">
         <v>0.0</v>
@@ -10336,19 +10378,16 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B170">
-        <v>231721.0</v>
+        <v>232593.0</v>
       </c>
       <c t="s" s="1" r="C170">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c s="1" r="D170">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E170">
-        <v>433</v>
-      </c>
-      <c s="1" r="F170">
-        <v>54.0</v>
+        <v>434</v>
       </c>
       <c s="1" r="G170">
         <v>0.0</v>
@@ -10386,16 +10425,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B171">
-        <v>232593.0</v>
+        <v>233718.0</v>
       </c>
       <c t="s" s="1" r="C171">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c s="1" r="D171">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E171">
-        <v>435</v>
+        <v>436</v>
+      </c>
+      <c s="1" r="F171">
+        <v>738.0</v>
       </c>
       <c s="1" r="G171">
         <v>0.0</v>
@@ -10433,19 +10475,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B172">
-        <v>233718.0</v>
+        <v>233286.0</v>
       </c>
       <c t="s" s="1" r="C172">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c s="1" r="D172">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E172">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c s="1" r="F172">
-        <v>738.0</v>
+        <v>31.0</v>
       </c>
       <c s="1" r="G172">
         <v>0.0</v>
@@ -10483,19 +10525,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B173">
-        <v>233286.0</v>
+        <v>444884.0</v>
       </c>
       <c t="s" s="1" r="C173">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c s="1" r="D173">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E173">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c s="1" r="F173">
-        <v>31.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="G173">
         <v>0.0</v>
@@ -10533,19 +10575,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B174">
-        <v>444884.0</v>
+        <v>248970.0</v>
       </c>
       <c t="s" s="1" r="C174">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c s="1" r="D174">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E174">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c s="1" r="F174">
-        <v>7.0</v>
+        <v>316.0</v>
       </c>
       <c s="1" r="G174">
         <v>0.0</v>
@@ -10583,19 +10625,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B175">
-        <v>248970.0</v>
+        <v>440341.0</v>
       </c>
       <c t="s" s="1" r="C175">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c s="1" r="D175">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E175">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c s="1" r="F175">
-        <v>316.0</v>
+        <v>958.0</v>
       </c>
       <c s="1" r="G175">
         <v>0.0</v>
@@ -10633,19 +10675,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B176">
-        <v>440341.0</v>
+        <v>233897.0</v>
       </c>
       <c t="s" s="1" r="C176">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c s="1" r="D176">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E176">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c s="1" r="F176">
-        <v>958.0</v>
+        <v>1836.0</v>
       </c>
       <c s="1" r="G176">
         <v>0.0</v>
@@ -10683,19 +10725,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B177">
-        <v>233897.0</v>
+        <v>233754.0</v>
       </c>
       <c t="s" s="1" r="C177">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c s="1" r="D177">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E177">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c s="1" r="F177">
-        <v>1836.0</v>
+        <v>8515.0</v>
       </c>
       <c s="1" r="G177">
         <v>0.0</v>
@@ -10733,19 +10775,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B178">
-        <v>233754.0</v>
+        <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C178">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c s="1" r="D178">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E178">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c s="1" r="F178">
-        <v>8515.0</v>
+        <v>22691.0</v>
       </c>
       <c s="1" r="G178">
         <v>0.0</v>
@@ -10786,13 +10828,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C179">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c s="1" r="D179">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E179">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c s="1" r="F179">
         <v>22691.0</v>
@@ -10836,13 +10878,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C180">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c s="1" r="D180">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E180">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c s="1" r="F180">
         <v>22691.0</v>
@@ -10886,13 +10928,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C181">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c s="1" r="D181">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E181">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c s="1" r="F181">
         <v>22691.0</v>
@@ -10936,13 +10978,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C182">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c s="1" r="D182">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E182">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c s="1" r="F182">
         <v>22691.0</v>
@@ -10983,19 +11025,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B183">
-        <v>233772.0</v>
+        <v>232919.0</v>
       </c>
       <c t="s" s="1" r="C183">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c s="1" r="D183">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E183">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c s="1" r="F183">
-        <v>22691.0</v>
+        <v>93.0</v>
       </c>
       <c s="1" r="G183">
         <v>0.0</v>
@@ -11033,19 +11075,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B184">
-        <v>232919.0</v>
+        <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C184">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c s="1" r="D184">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E184">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c s="1" r="F184">
-        <v>93.0</v>
+        <v>391.0</v>
       </c>
       <c s="1" r="G184">
         <v>0.0</v>
@@ -11086,13 +11128,13 @@
         <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C185">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c s="1" r="D185">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E185">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c s="1" r="F185">
         <v>391.0</v>
@@ -11133,19 +11175,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B186">
-        <v>233842.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C186">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c s="1" r="D186">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E186">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c s="1" r="F186">
-        <v>391.0</v>
+        <v>4729.0</v>
       </c>
       <c s="1" r="G186">
         <v>0.0</v>
@@ -11183,19 +11225,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B187">
-        <v>232681.0</v>
+        <v>442189.0</v>
       </c>
       <c t="s" s="1" r="C187">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c s="1" r="D187">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E187">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c s="1" r="F187">
-        <v>4729.0</v>
+        <v>1266.0</v>
       </c>
       <c s="1" r="G187">
         <v>0.0</v>
@@ -11233,19 +11275,16 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B188">
-        <v>442189.0</v>
+        <v>446756.0</v>
       </c>
       <c t="s" s="1" r="C188">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c s="1" r="D188">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E188">
-        <v>469</v>
-      </c>
-      <c s="1" r="F188">
-        <v>1266.0</v>
+        <v>470</v>
       </c>
       <c s="1" r="G188">
         <v>0.0</v>
@@ -11283,16 +11322,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B189">
-        <v>446756.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C189">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c s="1" r="D189">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E189">
-        <v>471</v>
+        <v>472</v>
+      </c>
+      <c s="1" r="F189">
+        <v>4475.0</v>
       </c>
       <c s="1" r="G189">
         <v>0.0</v>
@@ -11330,19 +11372,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B190">
-        <v>233374.0</v>
+        <v>442639.0</v>
       </c>
       <c t="s" s="1" r="C190">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c s="1" r="D190">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E190">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c s="1" r="F190">
-        <v>4475.0</v>
+        <v>92.0</v>
       </c>
       <c s="1" r="G190">
         <v>0.0</v>
@@ -11380,19 +11422,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B191">
-        <v>442639.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C191">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c s="1" r="D191">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E191">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c s="1" r="F191">
-        <v>92.0</v>
+        <v>23341.0</v>
       </c>
       <c s="1" r="G191">
         <v>0.0</v>
@@ -11433,13 +11475,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C192">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c s="1" r="D192">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E192">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c s="1" r="F192">
         <v>23341.0</v>
@@ -11483,13 +11525,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C193">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c s="1" r="D193">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E193">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c s="1" r="F193">
         <v>23341.0</v>
@@ -11533,13 +11575,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C194">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c s="1" r="D194">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E194">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c s="1" r="F194">
         <v>23341.0</v>
@@ -11583,13 +11625,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C195">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c s="1" r="D195">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E195">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c s="1" r="F195">
         <v>23341.0</v>
@@ -11633,13 +11675,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C196">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c s="1" r="D196">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E196">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c s="1" r="F196">
         <v>23341.0</v>
@@ -11683,13 +11725,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C197">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c s="1" r="D197">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E197">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c s="1" r="F197">
         <v>23341.0</v>
@@ -11730,19 +11772,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B198">
-        <v>234076.0</v>
+        <v>377485.0</v>
       </c>
       <c t="s" s="1" r="C198">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c s="1" r="D198">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E198">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c s="1" r="F198">
-        <v>23341.0</v>
+        <v>26.0</v>
       </c>
       <c s="1" r="G198">
         <v>0.0</v>
@@ -11780,19 +11822,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B199">
-        <v>377485.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C199">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c s="1" r="D199">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E199">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c s="1" r="F199">
-        <v>26.0</v>
+        <v>28303.0</v>
       </c>
       <c s="1" r="G199">
         <v>0.0</v>
@@ -11833,13 +11875,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C200">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c s="1" r="D200">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E200">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c s="1" r="F200">
         <v>28303.0</v>
@@ -11880,19 +11922,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B201">
-        <v>234030.0</v>
+        <v>233903.0</v>
       </c>
       <c t="s" s="1" r="C201">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c s="1" r="D201">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E201">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c s="1" r="F201">
-        <v>28303.0</v>
+        <v>2299.0</v>
       </c>
       <c s="1" r="G201">
         <v>0.0</v>
@@ -11930,19 +11972,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B202">
-        <v>233903.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C202">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c s="1" r="D202">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E202">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c s="1" r="F202">
-        <v>2299.0</v>
+        <v>1149.0</v>
       </c>
       <c s="1" r="G202">
         <v>0.0</v>
@@ -11980,19 +12022,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B203">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C203">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c s="1" r="D203">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E203">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c s="1" r="F203">
-        <v>1149.0</v>
+        <v>1362.0</v>
       </c>
       <c s="1" r="G203">
         <v>0.0</v>
@@ -12030,19 +12072,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B204">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C204">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c s="1" r="D204">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E204">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c s="1" r="F204">
-        <v>1362.0</v>
+        <v>27619.0</v>
       </c>
       <c s="1" r="G204">
         <v>0.0</v>
@@ -12083,13 +12125,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C205">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c s="1" r="D205">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E205">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c s="1" r="F205">
         <v>27619.0</v>
@@ -12106,16 +12148,7 @@
       <c s="1" r="AB205">
         <v>0.0</v>
       </c>
-      <c s="1" r="AI205">
-        <v>0.0</v>
-      </c>
       <c s="1" r="AP205">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AW205">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BD205">
         <v>0.0</v>
       </c>
       <c s="1" r="BK205">
@@ -12133,13 +12166,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C206">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c s="1" r="D206">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E206">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c s="1" r="F206">
         <v>27619.0</v>
@@ -12174,13 +12207,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C207">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c s="1" r="D207">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E207">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c s="1" r="F207">
         <v>27619.0</v>
@@ -12215,13 +12248,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C208">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c s="1" r="D208">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E208">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c s="1" r="F208">
         <v>27619.0</v>
@@ -12256,13 +12289,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C209">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c s="1" r="D209">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E209">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c s="1" r="F209">
         <v>27619.0</v>
@@ -12297,13 +12330,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C210">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c s="1" r="D210">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E210">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c s="1" r="F210">
         <v>27619.0</v>
@@ -12338,13 +12371,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C211">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c s="1" r="D211">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E211">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c s="1" r="F211">
         <v>27619.0</v>
@@ -12376,19 +12409,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B212">
-        <v>233921.0</v>
+        <v>234119.0</v>
       </c>
       <c t="s" s="1" r="C212">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c s="1" r="D212">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E212">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c s="1" r="F212">
-        <v>27619.0</v>
+        <v>113.0</v>
       </c>
       <c s="1" r="G212">
         <v>0.0</v>
@@ -12402,7 +12435,16 @@
       <c s="1" r="AB212">
         <v>0.0</v>
       </c>
+      <c s="1" r="AI212">
+        <v>0.0</v>
+      </c>
       <c s="1" r="AP212">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AW212">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BD212">
         <v>0.0</v>
       </c>
       <c s="1" r="BK212">
@@ -12417,19 +12459,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B213">
-        <v>234119.0</v>
+        <v>430254.0</v>
       </c>
       <c t="s" s="1" r="C213">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c s="1" r="D213">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E213">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c s="1" r="F213">
-        <v>113.0</v>
+        <v>148.0</v>
       </c>
       <c s="1" r="G213">
         <v>0.0</v>
@@ -12467,19 +12509,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B214">
-        <v>430254.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C214">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c s="1" r="D214">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E214">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c s="1" r="F214">
-        <v>148.0</v>
+        <v>4859.0</v>
       </c>
       <c s="1" r="G214">
         <v>0.0</v>
@@ -12517,19 +12559,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B215">
-        <v>234155.0</v>
+        <v>234164.0</v>
       </c>
       <c t="s" s="1" r="C215">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c s="1" r="D215">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E215">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c s="1" r="F215">
-        <v>4859.0</v>
+        <v>1777.0</v>
       </c>
       <c s="1" r="G215">
         <v>0.0</v>
@@ -12567,19 +12609,16 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B216">
-        <v>234164.0</v>
+        <v>234137.0</v>
       </c>
       <c t="s" s="1" r="C216">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c s="1" r="D216">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E216">
-        <v>525</v>
-      </c>
-      <c s="1" r="F216">
-        <v>1777.0</v>
+        <v>526</v>
       </c>
       <c s="1" r="G216">
         <v>0.0</v>
@@ -12617,16 +12656,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B217">
-        <v>234137.0</v>
+        <v>234173.0</v>
       </c>
       <c t="s" s="1" r="C217">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c s="1" r="D217">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E217">
-        <v>527</v>
+        <v>528</v>
+      </c>
+      <c s="1" r="F217">
+        <v>1442.0</v>
       </c>
       <c s="1" r="G217">
         <v>0.0</v>
@@ -12664,19 +12706,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B218">
-        <v>234173.0</v>
+        <v>233949.0</v>
       </c>
       <c t="s" s="1" r="C218">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c s="1" r="D218">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E218">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c s="1" r="F218">
-        <v>1442.0</v>
+        <v>8361.0</v>
       </c>
       <c s="1" r="G218">
         <v>0.0</v>
@@ -12714,19 +12756,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B219">
-        <v>233949.0</v>
+        <v>234191.0</v>
       </c>
       <c t="s" s="1" r="C219">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c s="1" r="D219">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E219">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c s="1" r="F219">
-        <v>8361.0</v>
+        <v>128.0</v>
       </c>
       <c s="1" r="G219">
         <v>0.0</v>
@@ -12764,19 +12806,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B220">
-        <v>234191.0</v>
+        <v>445683.0</v>
       </c>
       <c t="s" s="1" r="C220">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c s="1" r="D220">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E220">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c s="1" r="F220">
-        <v>128.0</v>
+        <v>97.0</v>
       </c>
       <c s="1" r="G220">
         <v>0.0</v>
@@ -12814,19 +12856,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B221">
-        <v>445683.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C221">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c s="1" r="D221">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E221">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c s="1" r="F221">
-        <v>97.0</v>
+        <v>2174.0</v>
       </c>
       <c s="1" r="G221">
         <v>0.0</v>
@@ -12864,19 +12906,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B222">
-        <v>234207.0</v>
+        <v>234225.0</v>
       </c>
       <c t="s" s="1" r="C222">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c s="1" r="D222">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E222">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c s="1" r="F222">
-        <v>2174.0</v>
+        <v>142.0</v>
       </c>
       <c s="1" r="G222">
         <v>0.0</v>
@@ -12914,19 +12956,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B223">
-        <v>234225.0</v>
+        <v>234359.0</v>
       </c>
       <c t="s" s="1" r="C223">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c s="1" r="D223">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E223">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c s="1" r="F223">
-        <v>142.0</v>
+        <v>228.0</v>
       </c>
       <c s="1" r="G223">
         <v>0.0</v>
@@ -12964,19 +13006,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B224">
-        <v>234359.0</v>
+        <v>234377.0</v>
       </c>
       <c t="s" s="1" r="C224">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c s="1" r="D224">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E224">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c s="1" r="F224">
-        <v>228.0</v>
+        <v>2700.0</v>
       </c>
       <c s="1" r="G224">
         <v>0.0</v>
@@ -13006,56 +13048,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="BR224">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="225">
-      <c s="1" r="A225">
-        <v>2004.0</v>
-      </c>
-      <c s="1" r="B225">
-        <v>234377.0</v>
-      </c>
-      <c t="s" s="1" r="C225">
-        <v>542</v>
-      </c>
-      <c s="1" r="D225">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E225">
-        <v>543</v>
-      </c>
-      <c s="1" r="F225">
-        <v>2700.0</v>
-      </c>
-      <c s="1" r="G225">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N225">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="U225">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AB225">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AI225">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AP225">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AW225">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BD225">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BK225">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BR225">
         <v>0.0</v>
       </c>
     </row>
